--- a/data/cleaned_data/final_cleaned/Data_Final_Diagnose_2018.xlsx
+++ b/data/cleaned_data/final_cleaned/Data_Final_Diagnose_2018.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csb/Desktop/Uni/data literacy/Streamlit-Application-for-Data-Literacy/data/cleaned_data/final_cleaned/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathan.bach/Documents/GitHub/Repositorys/Streamlit-Application-for-Data-Literacy/data/cleaned_data/final_cleaned/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7307E748-D58D-7747-A6AD-8B6D100D0C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7F943E-1ABB-7446-9BA1-C768425178E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Abteilung</t>
   </si>
@@ -182,6 +195,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +206,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -215,13 +229,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -526,15 +554,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="9.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -565,8 +596,11 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -597,8 +631,11 @@
       <c r="J2">
         <v>1725387</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2">
+        <v>15103052</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -629,8 +666,11 @@
       <c r="J3">
         <v>209524</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>940697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -661,8 +701,11 @@
       <c r="J4">
         <v>254861</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>2474452</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -693,8 +736,11 @@
       <c r="J5">
         <v>23994</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>232736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -725,8 +771,11 @@
       <c r="J6">
         <v>48783</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>585051</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -757,8 +806,11 @@
       <c r="J7">
         <v>4495</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>50461</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -789,8 +841,11 @@
       <c r="J8">
         <v>99731</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>993238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -821,8 +876,11 @@
       <c r="J9">
         <v>39486</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>491397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -853,8 +911,11 @@
       <c r="J10">
         <v>10413</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>129005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -885,8 +946,11 @@
       <c r="J11">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>2562586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -917,8 +981,11 @@
       <c r="J12">
         <v>45</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>51203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -949,8 +1016,11 @@
       <c r="J13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>149130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -981,8 +1051,11 @@
       <c r="J14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>341145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1013,8 +1086,11 @@
       <c r="J15">
         <v>13818</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>182145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1045,8 +1121,11 @@
       <c r="J16">
         <v>671729</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>8411619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -1077,8 +1156,11 @@
       <c r="J17">
         <v>229792</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>2278259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1109,8 +1191,11 @@
       <c r="J18">
         <v>47684</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>641734</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1141,8 +1226,11 @@
       <c r="J19">
         <v>45700</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>532013</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>29</v>
       </c>
@@ -1173,8 +1261,11 @@
       <c r="J20">
         <v>10329</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>258805</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1205,8 +1296,11 @@
       <c r="J21">
         <v>6957</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>108649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1237,8 +1331,11 @@
       <c r="J22">
         <v>20947</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>307213</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -1269,8 +1366,11 @@
       <c r="J23">
         <v>99095</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>2399648</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1301,8 +1401,11 @@
       <c r="J24">
         <v>229021</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>2466607</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1333,8 +1436,11 @@
       <c r="J25">
         <v>148880</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>4680863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1365,8 +1471,11 @@
       <c r="J26">
         <v>80</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>2075983</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1397,8 +1506,11 @@
       <c r="J27">
         <v>49772</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>1621008</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1429,8 +1541,11 @@
       <c r="J28">
         <v>125431</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>1034576</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1461,8 +1576,11 @@
       <c r="J29">
         <v>253356</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>2833954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1493,8 +1611,11 @@
       <c r="J30">
         <v>88473</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>2285869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>40</v>
       </c>
@@ -1525,8 +1646,11 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>153147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -1557,8 +1681,11 @@
       <c r="J32">
         <v>6016</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>274469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1589,8 +1716,11 @@
       <c r="J33">
         <v>8377</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>110149</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1621,8 +1751,11 @@
       <c r="J34">
         <v>12603</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>188764</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1653,8 +1786,11 @@
       <c r="J35">
         <v>56877</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>684272</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1685,8 +1821,11 @@
       <c r="J36">
         <v>20215</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>324388</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1717,8 +1856,11 @@
       <c r="J37">
         <v>20653</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>297755</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1748,6 +1890,9 @@
       </c>
       <c r="J38">
         <v>35655</v>
+      </c>
+      <c r="K38">
+        <v>441703</v>
       </c>
     </row>
   </sheetData>
